--- a/RIC_Data_by_Ccy.xlsx
+++ b/RIC_Data_by_Ccy.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddd90db6ee568e88/0Universitetet/TQTM33 - MSc/MSc-Financial-Mathematics-Multi-Curve-Modeling-Risk-Performance-Attribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="807" documentId="13_ncr:1_{5BDA39D7-D42C-466B-9A6D-39F3A9700EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9A9A0514-4E48-4D14-B93D-157B84869D9F}"/>
+  <xr:revisionPtr revIDLastSave="974" documentId="13_ncr:1_{5BDA39D7-D42C-466B-9A6D-39F3A9700EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4679779B-79DA-41D6-BED5-3068D9EA52E7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4680" windowWidth="21600" windowHeight="11520" tabRatio="794" firstSheet="1" activeTab="4" xr2:uid="{CB33115E-7841-4E48-8745-23DB52C94076}"/>
+    <workbookView xWindow="0" yWindow="4680" windowWidth="21600" windowHeight="11520" tabRatio="794" activeTab="7" xr2:uid="{CB33115E-7841-4E48-8745-23DB52C94076}"/>
   </bookViews>
   <sheets>
-    <sheet name="SEK" sheetId="1" r:id="rId1"/>
-    <sheet name="USD" sheetId="2" r:id="rId2"/>
-    <sheet name="NOK" sheetId="3" r:id="rId3"/>
-    <sheet name="EUR" sheetId="4" r:id="rId4"/>
-    <sheet name="DKK" sheetId="5" r:id="rId5"/>
-    <sheet name="GBP" sheetId="6" r:id="rId6"/>
-    <sheet name="RICs" sheetId="7" r:id="rId7"/>
-    <sheet name="DayCount" sheetId="9" r:id="rId8"/>
-    <sheet name="DataValdiation" sheetId="8" r:id="rId9"/>
+    <sheet name="SuperRICs" sheetId="7" r:id="rId1"/>
+    <sheet name="SEK" sheetId="1" r:id="rId2"/>
+    <sheet name="USD" sheetId="2" r:id="rId3"/>
+    <sheet name="NOK" sheetId="3" r:id="rId4"/>
+    <sheet name="EUR" sheetId="4" r:id="rId5"/>
+    <sheet name="DKK" sheetId="5" r:id="rId6"/>
+    <sheet name="GBP" sheetId="6" r:id="rId7"/>
+    <sheet name="DayCounts" sheetId="9" r:id="rId8"/>
+    <sheet name="DropLists" sheetId="8" r:id="rId9"/>
     <sheet name="Frågor" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,8 +41,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Fredrik Gerdin Börjesson</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{DE21C9A0-89A8-47EF-B9F2-5C9391A3CA0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fredrik Gerdin Börjesson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+See LIBORU</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{FF12E7F6-0417-42B8-B048-7170FDDC96E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fredrik Gerdin Börjesson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.finansnorge.no/en/interest-rates/nowa---the-norwegian-overnight-weighted-average/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{06D5819B-4B87-48C2-8F8F-C6AF813F9D9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fredrik Gerdin Börjesson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.emmi-benchmarks.eu/assets/files/Euribor%20FAQs%20Final.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{7D672297-C26F-46BA-A58F-E9C20A42FDF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fredrik Gerdin Börjesson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+See LIBORU</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="444">
   <si>
     <t>Maturity</t>
   </si>
@@ -1074,9 +1180,6 @@
   </si>
   <si>
     <t>GBPSB6L50Y=</t>
-  </si>
-  <si>
-    <t>See LIBORU</t>
   </si>
   <si>
     <t>ACT/365</t>
@@ -1201,13 +1304,190 @@
   </si>
   <si>
     <t>https://www.morton-fraser.com/knowledge-hub/problem-sonia-alternative-libor</t>
+  </si>
+  <si>
+    <t>EURIBOR hade fram till 2013 15 olika räntor, numer 5. Vad ska vi räkna med?</t>
+  </si>
+  <si>
+    <t>Ska vi enbart ha instrument för riskfria samt 3M-tenoren, likt i CDIOn?</t>
+  </si>
+  <si>
+    <t>AB30/360-6MCIBOR</t>
+  </si>
+  <si>
+    <t>IRS-ANALYTICS</t>
+  </si>
+  <si>
+    <t>3#2</t>
+  </si>
+  <si>
+    <t>3#3</t>
+  </si>
+  <si>
+    <t>3#1</t>
+  </si>
+  <si>
+    <t>3#4</t>
+  </si>
+  <si>
+    <t>3#5</t>
+  </si>
+  <si>
+    <t>3#6</t>
+  </si>
+  <si>
+    <t>3#7</t>
+  </si>
+  <si>
+    <t>3#8</t>
+  </si>
+  <si>
+    <t>3#9</t>
+  </si>
+  <si>
+    <t>3#10</t>
+  </si>
+  <si>
+    <t>6#1</t>
+  </si>
+  <si>
+    <t>6#2</t>
+  </si>
+  <si>
+    <t>6#3</t>
+  </si>
+  <si>
+    <t>6#4</t>
+  </si>
+  <si>
+    <t>6#5</t>
+  </si>
+  <si>
+    <t>6#6</t>
+  </si>
+  <si>
+    <t>3.5Y</t>
+  </si>
+  <si>
+    <t>DKK3F1=</t>
+  </si>
+  <si>
+    <t>DKK3F2=</t>
+  </si>
+  <si>
+    <t>DKK3F3=</t>
+  </si>
+  <si>
+    <t>DKK3F4=</t>
+  </si>
+  <si>
+    <t>DKK3F5=</t>
+  </si>
+  <si>
+    <t>DKK3F6=</t>
+  </si>
+  <si>
+    <t>DKK3F7=</t>
+  </si>
+  <si>
+    <t>DKK3F8=</t>
+  </si>
+  <si>
+    <t>DKK3F9=</t>
+  </si>
+  <si>
+    <t>DKK3F10=</t>
+  </si>
+  <si>
+    <t>DKK6F1=</t>
+  </si>
+  <si>
+    <t>DKK6F2=</t>
+  </si>
+  <si>
+    <t>DKK6F3=</t>
+  </si>
+  <si>
+    <t>DKK6F4=</t>
+  </si>
+  <si>
+    <t>DKK6F5=</t>
+  </si>
+  <si>
+    <t>DKK6F6=</t>
+  </si>
+  <si>
+    <t>DKKTNS</t>
+  </si>
+  <si>
+    <t>DKKAMTNC1M=</t>
+  </si>
+  <si>
+    <t>DKKAMTNC2M=</t>
+  </si>
+  <si>
+    <t>DKKAMTNC3M=</t>
+  </si>
+  <si>
+    <t>DKKAMTNC6M=</t>
+  </si>
+  <si>
+    <t>DKKAMTNC9M=</t>
+  </si>
+  <si>
+    <t>DKKAMTNC1Y=</t>
+  </si>
+  <si>
+    <t>DKKAMTNC2Y=</t>
+  </si>
+  <si>
+    <t>DKKAMTNC3Y=</t>
+  </si>
+  <si>
+    <t>DKKAMTNC4Y=</t>
+  </si>
+  <si>
+    <t>DKKAMTNC5Y=</t>
+  </si>
+  <si>
+    <t>CIDKKSWD=</t>
+  </si>
+  <si>
+    <t>CIDKK2WD=</t>
+  </si>
+  <si>
+    <t>CIDKK1MD=</t>
+  </si>
+  <si>
+    <t>CIDKK2MD=</t>
+  </si>
+  <si>
+    <t>CIDKK3MD=</t>
+  </si>
+  <si>
+    <t>CIDKK6MD=</t>
+  </si>
+  <si>
+    <t>CIDKK9MD=</t>
+  </si>
+  <si>
+    <t>CIDKK1YD=</t>
+  </si>
+  <si>
+    <t>30/360</t>
+  </si>
+  <si>
+    <t>KONTROLLERA MOT TPPE29 - Inlämningen med alla data!</t>
+  </si>
+  <si>
+    <t>NOWA: ACT/ACT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,6 +1541,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1304,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1330,6 +1632,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1349,6 +1652,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257898</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBB1388-A940-47A7-9144-8E0C9C94A112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="1847850"/>
+          <a:ext cx="5182323" cy="8497486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324576</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>29818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEBCAFE-0552-4E5D-9DCD-48C9AF814746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1847850"/>
+          <a:ext cx="5201376" cy="8907118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1397,7 +1793,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1446,7 +1842,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1495,7 +1891,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1588,7 +1984,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1637,7 +2033,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1675,55 +2071,6 @@
         <a:xfrm>
           <a:off x="8639175" y="190500"/>
           <a:ext cx="6468378" cy="5115639"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>248373</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>115486</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBB1388-A940-47A7-9144-8E0C9C94A112}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1390650" y="1581150"/>
-          <a:ext cx="5182323" cy="8497486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,14 +2378,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE0FD4-9B4A-4D03-BBFB-A8EA3FBD9DF6}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF51563-0812-4B86-AF79-B6CBA2FA2AD9}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="B2:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{BC39192B-72B1-425A-9C7F-68615E181A02}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D617CED6-796B-4171-8E7B-5E5675F4CA55}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A2:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,7 +5120,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L57" xr:uid="{3B4D4A55-569D-4483-BE34-EBC7B8B36026}">
       <formula1>"MID,BIDASK"</formula1>
     </dataValidation>
@@ -4530,78 +5130,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF51563-0812-4B86-AF79-B6CBA2FA2AD9}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="B2:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M7" r:id="rId1" xr:uid="{BC39192B-72B1-425A-9C7F-68615E181A02}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C174317-CEBD-493C-9643-8943043EC18F}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B2:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -5747,7 +6283,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F29" t="e">
-        <f ca="1">RtGet("IDN",D29,"Bid")</f>
+        <f ca="1">_xll.RtGet("IDN",D29,"Bid")</f>
         <v>#NAME?</v>
       </c>
       <c r="G29" t="e">
@@ -7290,15 +7826,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2234809D-1CBA-4903-90E9-4D8250E56E8E}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7314,7 +7850,7 @@
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
@@ -7333,7 +7869,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
@@ -7350,7 +7886,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -7391,7 +7927,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -7427,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>126</v>
       </c>
@@ -7463,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -7499,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -7535,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -7572,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -7608,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -7653,7 +8192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -7698,7 +8237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -7743,7 +8282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -7788,7 +8327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -7833,7 +8372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -8848,7 +9387,7 @@
     </row>
     <row r="38" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="N38" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -8862,15 +9401,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5991A43-7E5A-4176-A8D6-91A5F1AD4C38}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A2:N157"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13239,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E100" t="e">
         <f ca="1">_xll.RtGet("IDN",D100,"BID")</f>
@@ -13284,7 +13823,7 @@
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E101" t="e">
         <f ca="1">_xll.RtGet("IDN",D101,"BID")</f>
@@ -13329,7 +13868,7 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E102" t="e">
         <f ca="1">_xll.RtGet("IDN",D102,"BID")</f>
@@ -13374,7 +13913,7 @@
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E103" t="e">
         <f ca="1">_xll.RtGet("IDN",D103,"BID")</f>
@@ -13419,7 +13958,7 @@
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E104" t="e">
         <f ca="1">_xll.RtGet("IDN",D104,"BID")</f>
@@ -13464,7 +14003,7 @@
         <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E105" t="e">
         <f ca="1">_xll.RtGet("IDN",D105,"BID")</f>
@@ -13509,7 +14048,7 @@
         <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E106" t="e">
         <f ca="1">_xll.RtGet("IDN",D106,"BID")</f>
@@ -13554,7 +14093,7 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E107" t="e">
         <f ca="1">_xll.RtGet("IDN",D107,"BID")</f>
@@ -13599,7 +14138,7 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E108" t="e">
         <f ca="1">_xll.RtGet("IDN",D108,"BID")</f>
@@ -13644,7 +14183,7 @@
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E109" t="e">
         <f ca="1">_xll.RtGet("IDN",D109,"BID")</f>
@@ -13689,7 +14228,7 @@
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E110" t="e">
         <f ca="1">_xll.RtGet("IDN",D110,"BID")</f>
@@ -13734,7 +14273,7 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E111" t="e">
         <f ca="1">_xll.RtGet("IDN",D111,"BID")</f>
@@ -13779,7 +14318,7 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E112" t="e">
         <f ca="1">_xll.RtGet("IDN",D112,"BID")</f>
@@ -13824,7 +14363,7 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E113" t="e">
         <f ca="1">_xll.RtGet("IDN",D113,"BID")</f>
@@ -13869,7 +14408,7 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E114" t="e">
         <f ca="1">_xll.RtGet("IDN",D114,"BID")</f>
@@ -13914,7 +14453,7 @@
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E115" t="e">
         <f ca="1">_xll.RtGet("IDN",D115,"BID")</f>
@@ -13959,7 +14498,7 @@
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E116" t="e">
         <f ca="1">_xll.RtGet("IDN",D116,"BID")</f>
@@ -14004,7 +14543,7 @@
         <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E117" t="e">
         <f ca="1">_xll.RtGet("IDN",D117,"BID")</f>
@@ -14049,7 +14588,7 @@
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E118" t="e">
         <f ca="1">_xll.RtGet("IDN",D118,"BID")</f>
@@ -14094,7 +14633,7 @@
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E119" t="e">
         <f ca="1">_xll.RtGet("IDN",D119,"BID")</f>
@@ -14139,7 +14678,7 @@
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E120" t="e">
         <f ca="1">_xll.RtGet("IDN",D120,"BID")</f>
@@ -14184,7 +14723,7 @@
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E121" t="e">
         <f ca="1">_xll.RtGet("IDN",D121,"BID")</f>
@@ -14229,7 +14768,7 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E122" t="e">
         <f ca="1">_xll.RtGet("IDN",D122,"BID")</f>
@@ -14274,7 +14813,7 @@
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E123" t="e">
         <f ca="1">_xll.RtGet("IDN",D123,"BID")</f>
@@ -14319,7 +14858,7 @@
         <v>3</v>
       </c>
       <c r="D124" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E124" t="e">
         <f ca="1">_xll.RtGet("IDN",D124,"BID")</f>
@@ -14364,7 +14903,7 @@
         <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E125" t="e">
         <f ca="1">_xll.RtGet("IDN",D125,"BID")</f>
@@ -14409,7 +14948,7 @@
         <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E126" t="e">
         <f ca="1">_xll.RtGet("IDN",D126,"BID")</f>
@@ -14454,7 +14993,7 @@
         <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E127" t="e">
         <f ca="1">_xll.RtGet("IDN",D127,"BID")</f>
@@ -14499,7 +15038,7 @@
         <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E128" t="e">
         <f ca="1">_xll.RtGet("IDN",D128,"BID")</f>
@@ -14544,7 +15083,7 @@
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E129" t="e">
         <f ca="1">_xll.RtGet("IDN",D129,"BID")</f>
@@ -14589,7 +15128,7 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E130" t="e">
         <f ca="1">_xll.RtGet("IDN",D130,"BID")</f>
@@ -14634,7 +15173,7 @@
         <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E131" t="e">
         <f ca="1">_xll.RtGet("IDN",D131,"BID")</f>
@@ -14679,7 +15218,7 @@
         <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E132" t="e">
         <f ca="1">_xll.RtGet("IDN",D132,"BID")</f>
@@ -14724,7 +15263,7 @@
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E133" t="e">
         <f ca="1">_xll.RtGet("IDN",D133,"BID")</f>
@@ -14769,7 +15308,7 @@
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E134" t="e">
         <f ca="1">_xll.RtGet("IDN",D134,"BID")</f>
@@ -15352,15 +15891,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32807990-61D9-4D69-A06A-CD85CA3385C2}">
   <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:N14"/>
+  <dimension ref="A2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15460,9 +15999,8 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:D14" si="0">_xlfn.CONCAT(C$2,B5,"=")</f>
-        <v>DKKAMTNC1M=</v>
+      <c r="D5" t="s">
+        <v>423</v>
       </c>
       <c r="E5" t="e">
         <f ca="1">_xll.RtGet("IDN",D5,"BID")</f>
@@ -15495,7 +16033,7 @@
         <f>B$2</f>
         <v>DKK</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="12">
         <v>0</v>
       </c>
     </row>
@@ -15506,9 +16044,8 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>DKKAMTNC2M=</v>
+      <c r="D6" t="s">
+        <v>424</v>
       </c>
       <c r="E6" t="e">
         <f ca="1">_xll.RtGet("IDN",D6,"BID")</f>
@@ -15519,7 +16056,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G6" t="e">
-        <f t="shared" ref="G6:G14" ca="1" si="1">AVERAGE(E6:F6)</f>
+        <f t="shared" ref="G6:G14" ca="1" si="0">AVERAGE(E6:F6)</f>
         <v>#NAME?</v>
       </c>
       <c r="H6">
@@ -15538,8 +16075,11 @@
         <v>67</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ref="M6:M14" si="2">B$2</f>
+        <f t="shared" ref="M6:M14" si="1">B$2</f>
         <v>DKK</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -15549,9 +16089,8 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>DKKAMTNC3M=</v>
+      <c r="D7" t="s">
+        <v>425</v>
       </c>
       <c r="E7" t="e">
         <f ca="1">_xll.RtGet("IDN",D7,"BID")</f>
@@ -15562,7 +16101,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G7" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="H7">
@@ -15581,8 +16120,11 @@
         <v>67</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DKK</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -15592,9 +16134,8 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>DKKAMTNC6M=</v>
+      <c r="D8" t="s">
+        <v>426</v>
       </c>
       <c r="E8" t="e">
         <f ca="1">_xll.RtGet("IDN",D8,"BID")</f>
@@ -15605,7 +16146,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G8" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="H8">
@@ -15624,8 +16165,11 @@
         <v>67</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DKK</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -15635,9 +16179,8 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>DKKAMTNC9M=</v>
+      <c r="D9" t="s">
+        <v>427</v>
       </c>
       <c r="E9" t="e">
         <f ca="1">_xll.RtGet("IDN",D9,"BID")</f>
@@ -15648,7 +16191,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G9" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="H9">
@@ -15667,8 +16210,11 @@
         <v>67</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DKK</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -15678,9 +16224,8 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>DKKAMTNC1Y=</v>
+      <c r="D10" t="s">
+        <v>428</v>
       </c>
       <c r="E10" t="e">
         <f ca="1">_xll.RtGet("IDN",D10,"BID")</f>
@@ -15691,7 +16236,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G10" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="H10">
@@ -15710,8 +16255,11 @@
         <v>67</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DKK</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -15721,9 +16269,8 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>DKKAMTNC2Y=</v>
+      <c r="D11" t="s">
+        <v>429</v>
       </c>
       <c r="E11" t="e">
         <f ca="1">_xll.RtGet("IDN",D11,"BID")</f>
@@ -15734,7 +16281,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G11" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="H11">
@@ -15753,8 +16300,11 @@
         <v>67</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DKK</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -15764,9 +16314,8 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>DKKAMTNC3Y=</v>
+      <c r="D12" t="s">
+        <v>430</v>
       </c>
       <c r="E12" t="e">
         <f ca="1">_xll.RtGet("IDN",D12,"BID")</f>
@@ -15777,7 +16326,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G12" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="H12">
@@ -15796,8 +16345,11 @@
         <v>67</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DKK</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -15807,9 +16359,8 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>DKKAMTNC4Y=</v>
+      <c r="D13" t="s">
+        <v>431</v>
       </c>
       <c r="E13" t="e">
         <f ca="1">_xll.RtGet("IDN",D13,"BID")</f>
@@ -15820,7 +16371,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G13" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="H13">
@@ -15839,8 +16390,11 @@
         <v>67</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DKK</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -15850,9 +16404,8 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>DKKAMTNC5Y=</v>
+      <c r="D14" t="s">
+        <v>432</v>
       </c>
       <c r="E14" t="e">
         <f ca="1">_xll.RtGet("IDN",D14,"BID")</f>
@@ -15863,7 +16416,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G14" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="H14">
@@ -15882,13 +16435,1770 @@
         <v>67</v>
       </c>
       <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>DKK</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>433</v>
+      </c>
+      <c r="G15" t="e">
+        <f ca="1">_xll.RtGet("IDN",D15,"PRIMACT_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" t="str">
+        <f>B$2</f>
+        <v>DKK</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>434</v>
+      </c>
+      <c r="G16" t="e">
+        <f ca="1">_xll.RtGet("IDN",D16,"PRIMACT_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" ref="M16:M22" si="2">B$2</f>
+        <v>DKK</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" t="e">
+        <f ca="1">_xll.RtGet("IDN",D17,"PRIMACT_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="2"/>
         <v>DKK</v>
       </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>436</v>
+      </c>
+      <c r="G18" t="e">
+        <f ca="1">_xll.RtGet("IDN",D18,"PRIMACT_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>DKK</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G19" t="e">
+        <f ca="1">_xll.RtGet("IDN",D19,"PRIMACT_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>DKK</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>438</v>
+      </c>
+      <c r="G20" t="e">
+        <f ca="1">_xll.RtGet("IDN",D20,"PRIMACT_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>DKK</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" t="e">
+        <f ca="1">_xll.RtGet("IDN",D21,"PRIMACT_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>DKK</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>440</v>
+      </c>
+      <c r="G22" t="e">
+        <f ca="1">_xll.RtGet("IDN",D22,"PRIMACT_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>DKK</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>406</v>
+      </c>
+      <c r="E23" t="e">
+        <f ca="1">_xll.RtGet("IDN",D23,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F23" t="e">
+        <f ca="1">_xll.RtGet("IDN",D23,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" ref="G23" ca="1" si="3">AVERAGE(E23:F23)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ref="M23" si="4">B$2</f>
+        <v>DKK</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E24" t="e">
+        <f ca="1">_xll.RtGet("IDN",D24,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F24" t="e">
+        <f ca="1">_xll.RtGet("IDN",D24,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" ref="G24:G38" ca="1" si="5">AVERAGE(E24:F24)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" ref="M24:M38" si="6">B$2</f>
+        <v>DKK</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E25" t="e">
+        <f ca="1">_xll.RtGet("IDN",D25,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F25" t="e">
+        <f ca="1">_xll.RtGet("IDN",D25,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>409</v>
+      </c>
+      <c r="E26" t="e">
+        <f ca="1">_xll.RtGet("IDN",D26,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F26" t="e">
+        <f ca="1">_xll.RtGet("IDN",D26,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E27" t="e">
+        <f ca="1">_xll.RtGet("IDN",D27,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F27" t="e">
+        <f ca="1">_xll.RtGet("IDN",D27,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" t="e">
+        <f ca="1">_xll.RtGet("IDN",D28,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F28" t="e">
+        <f ca="1">_xll.RtGet("IDN",D28,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" t="e">
+        <f ca="1">_xll.RtGet("IDN",D29,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F29" t="e">
+        <f ca="1">_xll.RtGet("IDN",D29,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>413</v>
+      </c>
+      <c r="E30" t="e">
+        <f ca="1">_xll.RtGet("IDN",D30,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F30" t="e">
+        <f ca="1">_xll.RtGet("IDN",D30,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G30" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>397</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>414</v>
+      </c>
+      <c r="E31" t="e">
+        <f ca="1">_xll.RtGet("IDN",D31,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F31" t="e">
+        <f ca="1">_xll.RtGet("IDN",D31,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" t="e">
+        <f ca="1">_xll.RtGet("IDN",D32,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F32" t="e">
+        <f ca="1">_xll.RtGet("IDN",D32,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>399</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>416</v>
+      </c>
+      <c r="E33" t="e">
+        <f ca="1">_xll.RtGet("IDN",D33,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F33" t="e">
+        <f ca="1">_xll.RtGet("IDN",D33,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G33" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>400</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>417</v>
+      </c>
+      <c r="E34" t="e">
+        <f ca="1">_xll.RtGet("IDN",D34,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F34" t="e">
+        <f ca="1">_xll.RtGet("IDN",D34,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G34" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>418</v>
+      </c>
+      <c r="E35" t="e">
+        <f ca="1">_xll.RtGet("IDN",D35,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F35" t="e">
+        <f ca="1">_xll.RtGet("IDN",D35,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G35" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" t="e">
+        <f ca="1">_xll.RtGet("IDN",D36,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F36" t="e">
+        <f ca="1">_xll.RtGet("IDN",D36,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G36" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E37" t="e">
+        <f ca="1">_xll.RtGet("IDN",D37,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F37" t="e">
+        <f ca="1">_xll.RtGet("IDN",D37,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G37" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>421</v>
+      </c>
+      <c r="E38" t="e">
+        <f ca="1">_xll.RtGet("IDN",D38,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F38" t="e">
+        <f ca="1">_xll.RtGet("IDN",D38,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G38" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="6"/>
+        <v>DKK</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="str">
+        <f>"DKKAB6C"&amp;B39&amp;"="</f>
+        <v>DKKAB6C1Y=</v>
+      </c>
+      <c r="E39" t="e">
+        <f ca="1">_xll.RtGet("IDN",D39,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F39" t="e">
+        <f ca="1">_xll.RtGet("IDN",D39,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G39" t="e">
+        <f t="shared" ref="G39:G53" ca="1" si="7">AVERAGE(E39:F39)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" ref="M39:M53" si="8">B$2</f>
+        <v>DKK</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" ref="D40:D53" si="9">"DKKAB6C"&amp;B40&amp;"="</f>
+        <v>DKKAB6C2Y=</v>
+      </c>
+      <c r="E40" t="e">
+        <f ca="1">_xll.RtGet("IDN",D40,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F40" t="e">
+        <f ca="1">_xll.RtGet("IDN",D40,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G40" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C3Y=</v>
+      </c>
+      <c r="E41" t="e">
+        <f ca="1">_xll.RtGet("IDN",D41,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F41" t="e">
+        <f ca="1">_xll.RtGet("IDN",D41,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G41" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C4Y=</v>
+      </c>
+      <c r="E42" t="e">
+        <f ca="1">_xll.RtGet("IDN",D42,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F42" t="e">
+        <f ca="1">_xll.RtGet("IDN",D42,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>67</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C5Y=</v>
+      </c>
+      <c r="E43" t="e">
+        <f ca="1">_xll.RtGet("IDN",D43,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F43" t="e">
+        <f ca="1">_xll.RtGet("IDN",D43,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G43" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C6Y=</v>
+      </c>
+      <c r="E44" t="e">
+        <f ca="1">_xll.RtGet("IDN",D44,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F44" t="e">
+        <f ca="1">_xll.RtGet("IDN",D44,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G44" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>67</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C7Y=</v>
+      </c>
+      <c r="E45" t="e">
+        <f ca="1">_xll.RtGet("IDN",D45,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F45" t="e">
+        <f ca="1">_xll.RtGet("IDN",D45,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C8Y=</v>
+      </c>
+      <c r="E46" t="e">
+        <f ca="1">_xll.RtGet("IDN",D46,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F46" t="e">
+        <f ca="1">_xll.RtGet("IDN",D46,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G46" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C9Y=</v>
+      </c>
+      <c r="E47" t="e">
+        <f ca="1">_xll.RtGet("IDN",D47,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F47" t="e">
+        <f ca="1">_xll.RtGet("IDN",D47,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G47" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C10Y=</v>
+      </c>
+      <c r="E48" t="e">
+        <f ca="1">_xll.RtGet("IDN",D48,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F48" t="e">
+        <f ca="1">_xll.RtGet("IDN",D48,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G48" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>67</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C12Y=</v>
+      </c>
+      <c r="E49" t="e">
+        <f ca="1">_xll.RtGet("IDN",D49,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F49" t="e">
+        <f ca="1">_xll.RtGet("IDN",D49,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G49" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>67</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C15Y=</v>
+      </c>
+      <c r="E50" t="e">
+        <f ca="1">_xll.RtGet("IDN",D50,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F50" t="e">
+        <f ca="1">_xll.RtGet("IDN",D50,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G50" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C20Y=</v>
+      </c>
+      <c r="E51" t="e">
+        <f ca="1">_xll.RtGet("IDN",D51,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F51" t="e">
+        <f ca="1">_xll.RtGet("IDN",D51,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G51" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>67</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C25Y=</v>
+      </c>
+      <c r="E52" t="e">
+        <f ca="1">_xll.RtGet("IDN",D52,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F52" t="e">
+        <f ca="1">_xll.RtGet("IDN",D52,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G52" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>67</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="9"/>
+        <v>DKKAB6C30Y=</v>
+      </c>
+      <c r="E53" t="e">
+        <f ca="1">_xll.RtGet("IDN",D53,"BID")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F53" t="e">
+        <f ca="1">_xll.RtGet("IDN",D53,"ASK")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G53" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>67</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="8"/>
+        <v>DKK</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L14" xr:uid="{39430AE2-3D7A-472D-B310-6894DA3F9C66}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L53" xr:uid="{39430AE2-3D7A-472D-B310-6894DA3F9C66}">
       <formula1>"MID,BIDASK"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15897,15 +18207,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FD4A00-B25D-4B3E-957E-4D7DAE3BEC3F}">
   <sheetPr>
-    <tabColor theme="4"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17845,7 +20155,9 @@
         <f t="shared" ref="M46" si="8">B$2</f>
         <v>GBP</v>
       </c>
-      <c r="N46" s="12"/>
+      <c r="N46" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -17888,7 +20200,9 @@
         <f t="shared" ref="M47:M62" si="10">B$2</f>
         <v>GBP</v>
       </c>
-      <c r="N47" s="12"/>
+      <c r="N47" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -17931,7 +20245,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N48" s="12"/>
+      <c r="N48" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -17974,7 +20290,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N49" s="12"/>
+      <c r="N49" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -18017,7 +20335,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N50" s="12"/>
+      <c r="N50" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -18060,7 +20380,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N51" s="12"/>
+      <c r="N51" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -18103,7 +20425,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N52" s="12"/>
+      <c r="N52" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -18146,7 +20470,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N53" s="12"/>
+      <c r="N53" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -18189,7 +20515,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N54" s="12"/>
+      <c r="N54" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -18232,7 +20560,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N55" s="12"/>
+      <c r="N55" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -18275,7 +20605,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N56" s="12"/>
+      <c r="N56" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -18318,7 +20650,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N57" s="12"/>
+      <c r="N57" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -18361,7 +20695,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N58" s="12"/>
+      <c r="N58" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -18404,7 +20740,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N59" s="12"/>
+      <c r="N59" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -18447,7 +20785,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N60" s="12"/>
+      <c r="N60" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -18490,7 +20830,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N61" s="12"/>
+      <c r="N61" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -18533,7 +20875,9 @@
         <f t="shared" si="10"/>
         <v>GBP</v>
       </c>
-      <c r="N62" s="12"/>
+      <c r="N62" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -18547,26 +20891,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE0FD4-9B4A-4D03-BBFB-A8EA3FBD9DF6}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA1534C-858A-4D3E-8B03-FA04F31E270E}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
@@ -18589,191 +20925,70 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>95</v>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>89</v>
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>299</v>
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA1534C-858A-4D3E-8B03-FA04F31E270E}">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="B2:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H4" t="s">
-        <v>345</v>
-      </c>
-      <c r="J4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
